--- a/ig/sd-concept-map-statut-de-lessai/all-profiles.xlsx
+++ b/ig/sd-concept-map-statut-de-lessai/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T16:55:40+00:00</t>
+    <t>2023-07-26T17:10:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-concept-map-statut-de-lessai/all-profiles.xlsx
+++ b/ig/sd-concept-map-statut-de-lessai/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T17:10:58+00:00</t>
+    <t>2023-07-27T07:31:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
